--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406718.8852825841</v>
+        <v>336396.3048630668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11512539.900382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705205</v>
+        <v>10361893.43952979</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096213.398164084</v>
+        <v>8239106.155279131</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>153.8072380324128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9.079855502573773</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>39.01734059721687</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.62122496199387</v>
+        <v>59.49231343223016</v>
       </c>
       <c r="T11" t="n">
         <v>206.6581849802338</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.3343964518635</v>
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704908</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>131.1827144190101</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.5908076132626</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>81.28104349636175</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.0614688308293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472234</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>113.4024905348239</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>313.822842715532</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>127.2748517142196</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.030256527691028</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>207.3598677411503</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>305.012616457272</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.94563726208629</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>76.43680340403968</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>10.00607044921137</v>
+        <v>311.3026097187675</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>67.51363812600127</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3387326418222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>163.5820951301545</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>208.2474868886332</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3332554667406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>144.7691584824239</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>254.0786663085629</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>205.5609373384889</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>151.7222027933561</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>98.52272637982375</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>153.8978402385137</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>137.8659171849194</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
-        <v>192.0665623188213</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U33" t="n">
         <v>225.8092030868072</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.3373059116985</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>170.9812334109286</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>182.9377227717322</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>19.08535881736855</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>209.7339065810865</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.6913514727816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>287.9392284765968</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>167.4147487899561</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>223.2592867182196</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>183.1499262204238</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>295.7880427010232</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>36.88931045334213</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>223.2592867182196</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.997073228535855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>58.27493491260215</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>108.763472069518</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>170.9812334109293</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>101.9245702850074</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>219.9797031869058</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>331.8513234836056</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>331.8513234836056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1206.286642562605</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.286642562605</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D11" t="n">
-        <v>848.0209439558549</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2326913576107</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S11" t="n">
-        <v>2544.540111266829</v>
+        <v>2502.246082509012</v>
       </c>
       <c r="T11" t="n">
-        <v>2335.794469872653</v>
+        <v>2293.500441114837</v>
       </c>
       <c r="U11" t="n">
-        <v>2335.794469872653</v>
+        <v>2293.500441114837</v>
       </c>
       <c r="V11" t="n">
-        <v>2335.794469872653</v>
+        <v>1962.437553771266</v>
       </c>
       <c r="W11" t="n">
-        <v>1983.025814602539</v>
+        <v>1609.668898501152</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.025814602539</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="Y11" t="n">
-        <v>1592.886482626727</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966375</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155105</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542593</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488056</v>
+        <v>448.6792471488038</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756888</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182509</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057791</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J12" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L12" t="n">
         <v>593.0223835625329</v>
       </c>
       <c r="M12" t="n">
-        <v>1001.276695922949</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N12" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.515588472121</v>
       </c>
       <c r="O12" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648283</v>
       </c>
       <c r="P12" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434117</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087192</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>516.2398381699705</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>516.2398381699705</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
@@ -5223,28 +5223,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074497</v>
+        <v>1401.354921247645</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.446120074497</v>
+        <v>1401.354921247645</v>
       </c>
       <c r="V13" t="n">
-        <v>1636.446120074497</v>
+        <v>1146.670433041758</v>
       </c>
       <c r="W13" t="n">
-        <v>1636.446120074497</v>
+        <v>1146.670433041758</v>
       </c>
       <c r="X13" t="n">
-        <v>1490.124203461141</v>
+        <v>918.6808821437404</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.331624317611</v>
+        <v>697.8883030002103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>420.2093035084148</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C14" t="n">
-        <v>51.24678656800311</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D14" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E14" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G14" t="n">
         <v>51.24678656800311</v>
@@ -5278,13 +5278,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5308,7 +5308,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U14" t="n">
         <v>1975.31341879663</v>
@@ -5320,10 +5320,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X14" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y14" t="n">
-        <v>527.8767859460538</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>114.5432626034348</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>299.2648838844848</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L15" t="n">
-        <v>593.9684409159566</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M15" t="n">
-        <v>957.2304598751768</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O15" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P15" t="n">
         <v>2239.046898434119</v>
@@ -5390,16 +5390,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F16" t="n">
         <v>473.8272960668249</v>
@@ -5430,58 +5430,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074498</v>
+        <v>1313.598603659949</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074498</v>
+        <v>1313.598603659949</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074498</v>
+        <v>1313.598603659949</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074498</v>
+        <v>1024.181433622988</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>1024.181433622988</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>803.3888544794578</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>778.4750021151654</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C17" t="n">
-        <v>409.5124851747536</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2467865680031</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E17" t="n">
-        <v>51.2467865680031</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K17" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
         <v>1656.671415230817</v>
@@ -5542,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2447.791358162959</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2239.045716768784</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>2239.045716768784</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V17" t="n">
-        <v>1907.982829425213</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W17" t="n">
-        <v>1555.214174155099</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X17" t="n">
-        <v>1555.214174155099</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y17" t="n">
-        <v>1165.074842179287</v>
+        <v>1991.765497244606</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D18" t="n">
         <v>607.9167021542605</v>
@@ -5582,37 +5582,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G18" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H18" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L18" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O18" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5633,7 +5633,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X18" t="n">
         <v>1307.279776881661</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220.18296949591</v>
+        <v>942.4020044020325</v>
       </c>
       <c r="C19" t="n">
-        <v>51.2467865680031</v>
+        <v>773.4658214741256</v>
       </c>
       <c r="D19" t="n">
-        <v>51.2467865680031</v>
+        <v>623.3491820617899</v>
       </c>
       <c r="E19" t="n">
-        <v>51.2467865680031</v>
+        <v>475.4360884793967</v>
       </c>
       <c r="F19" t="n">
-        <v>51.2467865680031</v>
+        <v>328.5461409814864</v>
       </c>
       <c r="G19" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1632.37515388491</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1435.746406044771</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1212.767925239507</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>923.6495877433443</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V19" t="n">
-        <v>668.9650995374575</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W19" t="n">
-        <v>668.9650995374575</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X19" t="n">
-        <v>440.9755486394401</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.18296949591</v>
+        <v>1124.050469232272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1457.824646659611</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.824646659611</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D20" t="n">
-        <v>1457.824646659611</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="E20" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="F20" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H20" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L20" t="n">
         <v>795.755353087292</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U20" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V20" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W20" t="n">
-        <v>1831.290404920691</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X20" t="n">
-        <v>1457.824646659611</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y20" t="n">
-        <v>1457.824646659611</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L21" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M21" t="n">
-        <v>1154.038517360656</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.323645957601</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q21" t="n">
         <v>2538.001278676482</v>
@@ -5864,7 +5864,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
@@ -5873,7 +5873,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1931.908733528368</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C22" t="n">
-        <v>1762.972550600461</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D22" t="n">
-        <v>1612.855911188126</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.942817605733</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>1318.052870107822</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>1150.066405416101</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H22" t="n">
-        <v>1001.327507279607</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I22" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P22" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q22" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T22" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U22" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V22" t="n">
-        <v>2562.339328400155</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W22" t="n">
-        <v>2562.339328400155</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="X22" t="n">
-        <v>2334.349777502138</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="Y22" t="n">
-        <v>2113.557198358608</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C23" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D23" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F23" t="n">
-        <v>51.24678656800308</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.313418796628</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V23" t="n">
-        <v>1965.206276928738</v>
+        <v>1994.311187140328</v>
       </c>
       <c r="W23" t="n">
-        <v>1612.437621658624</v>
+        <v>1641.542531870213</v>
       </c>
       <c r="X23" t="n">
-        <v>1238.971863397544</v>
+        <v>1268.076773609134</v>
       </c>
       <c r="Y23" t="n">
-        <v>848.8325314217325</v>
+        <v>877.9374416333219</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>977.1399948936604</v>
+        <v>586.4082965573068</v>
       </c>
       <c r="C25" t="n">
-        <v>977.1399948936604</v>
+        <v>417.4721136293999</v>
       </c>
       <c r="D25" t="n">
-        <v>977.1399948936604</v>
+        <v>267.3554742170642</v>
       </c>
       <c r="E25" t="n">
-        <v>977.1399948936604</v>
+        <v>119.4423806346711</v>
       </c>
       <c r="F25" t="n">
-        <v>977.1399948936604</v>
+        <v>119.4423806346711</v>
       </c>
       <c r="G25" t="n">
-        <v>977.1399948936604</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H25" t="n">
-        <v>977.1399948936604</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>977.1399948936604</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K25" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L25" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N25" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P25" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>2562.339328400154</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>2562.339328400154</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.710580560015</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T25" t="n">
-        <v>2142.73209975475</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U25" t="n">
-        <v>1853.613762258588</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V25" t="n">
-        <v>1598.929274052701</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W25" t="n">
-        <v>1309.512104015741</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.522553117723</v>
+        <v>988.8493405310767</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.1399948936604</v>
+        <v>768.0567613875465</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.249159503017</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.286642562605</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D26" t="n">
-        <v>848.0209439558549</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2326913576107</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F26" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6244,34 +6244,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400156</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400156</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.339328400156</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="X26" t="n">
-        <v>2351.988331542951</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y26" t="n">
-        <v>1961.848999567139</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310615</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625333</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.201367341572</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N27" t="n">
-        <v>1861.38035112061</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O27" t="n">
-        <v>2193.450786296772</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.633520129069</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6347,7 +6347,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.688737789359</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C28" t="n">
-        <v>977.1399948936612</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D28" t="n">
-        <v>977.1399948936612</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E28" t="n">
-        <v>977.1399948936612</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F28" t="n">
-        <v>977.1399948936612</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K28" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M28" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N28" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P28" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>2562.339328400156</v>
+        <v>1490.214646859927</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.220990903993</v>
+        <v>1490.214646859927</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.536502698106</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.119332661146</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.129781763128</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.337202619598</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1246.899958573734</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="C29" t="n">
-        <v>877.9374416333219</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="D29" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6484,31 +6484,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2354.702017957238</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>2023.639130613667</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W29" t="n">
-        <v>2023.639130613667</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X29" t="n">
-        <v>2023.639130613667</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.499798637855</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C31" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D31" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E31" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
@@ -6645,28 +6645,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1337.23396574994</v>
+        <v>1483.191369778178</v>
       </c>
       <c r="T31" t="n">
-        <v>1114.255484944676</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.255484944676</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V31" t="n">
-        <v>1114.255484944676</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W31" t="n">
-        <v>1114.255484944676</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X31" t="n">
-        <v>1014.73757951051</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y31" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1432.831501090107</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="C32" t="n">
-        <v>1432.831501090107</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D32" t="n">
-        <v>1074.565802483357</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E32" t="n">
-        <v>688.7775498851124</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F32" t="n">
-        <v>688.7775498851124</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G32" t="n">
-        <v>273.0727996094013</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H32" t="n">
         <v>117.6204357321147</v>
@@ -6703,10 +6703,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6739,13 +6739,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W32" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X32" t="n">
-        <v>2209.570673130041</v>
+        <v>2423.080826193166</v>
       </c>
       <c r="Y32" t="n">
-        <v>1819.431341154229</v>
+        <v>2032.941494217354</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6821,7 +6821,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.6531669530525</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C34" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D34" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F34" t="n">
         <v>51.2467865680031</v>
@@ -6858,7 +6858,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
@@ -6873,37 +6873,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q34" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
-        <v>1533.862713590079</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1244.744376093917</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V34" t="n">
-        <v>990.0598878880304</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W34" t="n">
-        <v>700.6427178510698</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X34" t="n">
-        <v>472.6531669530525</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y34" t="n">
-        <v>472.6531669530525</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.739488336033</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.776971395622</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.511272788871</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.723020190627</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F35" t="n">
-        <v>651.7371154010195</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G35" t="n">
-        <v>236.0323651253084</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K35" t="n">
         <v>442.5171852816084</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400155</v>
+        <v>2418.361980707062</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400155</v>
+        <v>2418.361980707062</v>
       </c>
       <c r="W35" t="n">
-        <v>2562.339328400155</v>
+        <v>2418.361980707062</v>
       </c>
       <c r="X35" t="n">
-        <v>2562.339328400155</v>
+        <v>2418.361980707062</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.339328400155</v>
+        <v>2028.22264873125</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
@@ -7016,28 +7016,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L36" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7058,7 +7058,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D37" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E37" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
         <v>51.24678656800311</v>
@@ -7095,16 +7095,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K37" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7125,22 +7125,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.817372234359</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.132884028472</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W37" t="n">
-        <v>1185.132884028472</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.132884028472</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1432.831501090108</v>
+        <v>1126.761759316042</v>
       </c>
       <c r="C38" t="n">
-        <v>1432.831501090108</v>
+        <v>757.7992423756302</v>
       </c>
       <c r="D38" t="n">
-        <v>1432.831501090108</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.043248491863</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F38" t="n">
-        <v>636.0573437022558</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
-        <v>220.3525934265447</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W38" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.570673130041</v>
+        <v>1126.761759316042</v>
       </c>
       <c r="Y38" t="n">
-        <v>1819.431341154229</v>
+        <v>1126.761759316042</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K39" t="n">
-        <v>614.543024838023</v>
+        <v>575.6256845144194</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694948</v>
+        <v>870.3292415458911</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828715</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7292,7 +7292,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.9083323241252</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C40" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D40" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E40" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F40" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N40" t="n">
         <v>1123.088724245823</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1124.349301773071</v>
+        <v>991.3244604005894</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.349301773071</v>
+        <v>736.6399721947025</v>
       </c>
       <c r="W40" t="n">
-        <v>1124.349301773071</v>
+        <v>447.2228021577419</v>
       </c>
       <c r="X40" t="n">
-        <v>939.3493762978951</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="Y40" t="n">
-        <v>718.556797154365</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>350.0225872761075</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="C41" t="n">
-        <v>350.0225872761075</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D41" t="n">
-        <v>350.0225872761075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E41" t="n">
-        <v>350.0225872761075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F41" t="n">
-        <v>350.0225872761075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>350.0225872761075</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U41" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V41" t="n">
-        <v>1852.996172847235</v>
+        <v>1938.05148904578</v>
       </c>
       <c r="W41" t="n">
-        <v>1500.227517577121</v>
+        <v>1585.282833775666</v>
       </c>
       <c r="X41" t="n">
-        <v>1126.761759316041</v>
+        <v>1211.817075514587</v>
       </c>
       <c r="Y41" t="n">
-        <v>736.6224273402293</v>
+        <v>1211.817075514587</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
         <v>607.9167021542605</v>
@@ -7478,40 +7478,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>590.20497511435</v>
+        <v>520.4109910936361</v>
       </c>
       <c r="L42" t="n">
-        <v>884.9085321458217</v>
+        <v>815.1145481251078</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.170551105042</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7529,7 +7529,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
         <v>1307.279776881661</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>833.0891146802707</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C43" t="n">
-        <v>664.1529317523638</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D43" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F43" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U43" t="n">
-        <v>1244.744376093917</v>
+        <v>991.3244604005894</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.744376093917</v>
+        <v>736.6399721947025</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.744376093917</v>
+        <v>447.2228021577419</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.7548251959</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="Y43" t="n">
-        <v>1014.73757951051</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>864.8611267254491</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="C44" t="n">
-        <v>495.8986097850374</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="D44" t="n">
-        <v>437.0350391662474</v>
+        <v>1156.798933444388</v>
       </c>
       <c r="E44" t="n">
-        <v>51.24678656800312</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F44" t="n">
-        <v>51.24678656800312</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362824</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K44" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7663,37 +7663,37 @@
         <v>1656.671415230818</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400156</v>
+        <v>2452.477235400644</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664336</v>
+        <v>2198.896174664823</v>
       </c>
       <c r="V44" t="n">
-        <v>1977.695380320765</v>
+        <v>1867.833287321253</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.926725050651</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="X44" t="n">
-        <v>1251.460966789571</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="Y44" t="n">
-        <v>1251.460966789571</v>
+        <v>1515.064632051139</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K45" t="n">
-        <v>551.6025748766947</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L45" t="n">
-        <v>846.3061319081664</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M45" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C46" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D46" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E46" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7827,10 +7827,10 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S46" t="n">
         <v>1439.817372234359</v>
@@ -7839,19 +7839,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U46" t="n">
-        <v>1216.838891429094</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V46" t="n">
-        <v>1216.838891429094</v>
+        <v>789.4460866465113</v>
       </c>
       <c r="W46" t="n">
-        <v>1113.884780030097</v>
+        <v>500.0289166095506</v>
       </c>
       <c r="X46" t="n">
-        <v>885.8952291320793</v>
+        <v>272.0393657115333</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800314</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N2" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P2" t="n">
         <v>95.50771753390021</v>
@@ -8078,7 +8078,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N4" t="n">
         <v>62.89780050171086</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>45.44676101130898</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071651</v>
+        <v>0.9556134883058576</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9556134883064615</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>199.7516311504066</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878351</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.454437538930094</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>30.36925650589467</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878353</v>
+        <v>154.0169020165184</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780645</v>
+        <v>98.24448441976762</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>129.7511347056855</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>4.968575157640373</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>148.5652249528272</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23181,28 +23181,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271751</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>179.5673127548779</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.0185525624054</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>105.8309904368005</v>
+        <v>63.95990196656422</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>89.56598157820187</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.143034050218</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>273.4019981243212</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>2.687227166382627</v>
       </c>
       <c r="U16" t="n">
         <v>286.2271541212006</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.04972486397051</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>72.41509594052155</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>39.03174833058462</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.52731589188261</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>174.5705023311115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>101.8634292844395</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I22" t="n">
-        <v>80.85095794181429</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>210.0861949325513</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>317.7461880209235</v>
+        <v>16.44964875136742</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>98.79296191880292</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.2459207102726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>87.46315499830754</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>161.4836137898359</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.91356563188721</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24654,19 +24654,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>75.97953751478801</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>100.60437531212</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>45.48431278997313</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551289</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>42.94025756838136</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>127.1869290092134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>147.1207123238917</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>231.8651834935496</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.90951518692937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>118.0808297906732</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>231.9598913110935</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>76.49324754011408</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.89330187931319</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>66.74381314408618</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>133.6038037724492</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25599,25 +25599,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>62.96786740298103</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>42.55972916861333</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.230509861382131</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>290.8629480167928</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.96786740298103</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.5875801235589</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>296.4081067080808</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>97.89471291071574</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>115.2459207102713</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>184.5984280515836</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330600.7597974779</v>
+        <v>485153.5658931126</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611121</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99166.69657404802</v>
+        <v>99166.69657404805</v>
       </c>
       <c r="C2" t="n">
-        <v>99166.69657404805</v>
+        <v>99166.69657404807</v>
       </c>
       <c r="D2" t="n">
-        <v>99917.42429591442</v>
+        <v>153375.3739746992</v>
       </c>
       <c r="E2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="F2" t="n">
+        <v>260075.8859201621</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260075.8859201621</v>
+      </c>
+      <c r="H2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>260075.8859201622</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260075.8859201623</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260075.8859201621</v>
       </c>
       <c r="J2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201622</v>
@@ -26352,7 +26352,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="P2" t="n">
         <v>260075.8859201622</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>326899.4975468226</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.470382964</v>
+        <v>445061.6638164772</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>3.712954139700741e-10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47461.038381511</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.3024986581</v>
+        <v>112904.1760744627</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>7145.895421973697</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499342</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="F4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="G4" t="n">
         <v>12563.18241499341</v>
@@ -26438,7 +26438,7 @@
         <v>12563.18241499341</v>
       </c>
       <c r="I4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
         <v>12563.18241499341</v>
@@ -26450,16 +26450,16 @@
         <v>12563.18241499341</v>
       </c>
       <c r="M4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="N4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499339</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984471</v>
@@ -26490,28 +26490,28 @@
         <v>59310.17243984471</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984475</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188287.7288925273</v>
+        <v>-202980.4380465432</v>
       </c>
       <c r="C6" t="n">
-        <v>37949.36798617641</v>
+        <v>23256.6588321604</v>
       </c>
       <c r="D6" t="n">
-        <v>19230.19699311941</v>
+        <v>-249159.7828302766</v>
       </c>
       <c r="E6" t="n">
-        <v>-543967.9393176399</v>
+        <v>-262086.5954730449</v>
       </c>
       <c r="F6" t="n">
-        <v>188202.5310653238</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="G6" t="n">
-        <v>188202.5310653243</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="H6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="I6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434322</v>
       </c>
       <c r="J6" t="n">
-        <v>188202.5310653237</v>
+        <v>182975.0683434326</v>
       </c>
       <c r="K6" t="n">
-        <v>188202.5310653244</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="L6" t="n">
-        <v>188202.5310653241</v>
+        <v>135514.0299619214</v>
       </c>
       <c r="M6" t="n">
-        <v>28566.22856666597</v>
+        <v>70070.89226896975</v>
       </c>
       <c r="N6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434325</v>
       </c>
       <c r="O6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="P6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434322</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="H3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="I3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="J3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="J3" t="n">
-        <v>934.0648921175394</v>
       </c>
       <c r="K3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="L3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="M3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="N3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175397</v>
       </c>
     </row>
     <row r="4">
@@ -26795,28 +26795,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="F4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="H4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="H4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="I4" t="n">
-        <v>640.5848321000385</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="K4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000387</v>
@@ -26825,13 +26825,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
     </row>
   </sheetData>
@@ -26965,43 +26965,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>313.68990278691</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000743</v>
+        <v>385.5949512046349</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.410605131648481e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>453.0592449337189</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000391</v>
+        <v>453.059244933719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="M4" t="n">
-        <v>640.584832100039</v>
+        <v>453.0592449337189</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31056,7 +31056,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M2" t="n">
         <v>165.7299311340341</v>
@@ -31065,7 +31065,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P2" t="n">
         <v>135.7252782213693</v>
@@ -31080,7 +31080,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U2" t="n">
         <v>0.07550714794001816</v>
@@ -31150,7 +31150,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R3" t="n">
         <v>31.35420961992052</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H4" t="n">
         <v>3.764178316183975</v>
@@ -31217,7 +31217,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N4" t="n">
         <v>64.78774396352233</v>
@@ -31229,13 +31229,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R4" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T4" t="n">
         <v>1.808960949495364</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,25 +32153,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32180,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
         <v>0.3004027793744847</v>
@@ -32308,10 +32308,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32320,7 +32320,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
         <v>509.0653662040588</v>
@@ -32329,25 +32329,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32405,10 +32405,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32420,13 +32420,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H23" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q23" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R23" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T23" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
         <v>0.3004027793744847</v>
@@ -32782,10 +32782,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32794,34 +32794,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R24" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32879,10 +32879,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O25" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P25" t="n">
         <v>203.7180217169137</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S25" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H26" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I26" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J26" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L26" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q26" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R26" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T26" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H27" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K27" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M27" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N27" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P27" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R27" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,25 +33101,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K28" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L28" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M28" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N28" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O28" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P28" t="n">
         <v>203.7180217169137</v>
@@ -33128,16 +33128,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S28" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H32" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I32" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J32" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K32" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L32" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M32" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N32" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O32" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P32" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q32" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R32" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S32" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T32" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U32" t="n">
         <v>0.3004027793744847</v>
@@ -33493,10 +33493,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H33" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I33" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J33" t="n">
         <v>189.8178475575841</v>
@@ -33505,7 +33505,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M33" t="n">
         <v>509.0653662040588</v>
@@ -33514,25 +33514,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O33" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P33" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R33" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S33" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T33" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I34" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J34" t="n">
         <v>119.0856174753787</v>
@@ -33590,10 +33590,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N34" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O34" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P34" t="n">
         <v>203.7180217169137</v>
@@ -33605,13 +33605,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S34" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T34" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H35" t="n">
         <v>38.45624955336179</v>
@@ -33663,16 +33663,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L35" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M35" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N35" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O35" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P35" t="n">
         <v>539.9786897190645</v>
@@ -33684,7 +33684,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S35" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T35" t="n">
         <v>16.4376645838976</v>
@@ -33733,7 +33733,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I36" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J36" t="n">
         <v>189.8178475575841</v>
@@ -33745,16 +33745,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M36" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N36" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O36" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P36" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q36" t="n">
         <v>256.4624964168761</v>
@@ -33812,7 +33812,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I37" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J37" t="n">
         <v>119.0856174753787</v>
@@ -33839,7 +33839,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R37" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S37" t="n">
         <v>29.35413767523479</v>
@@ -33848,7 +33848,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H38" t="n">
         <v>38.45624955336179</v>
@@ -33900,16 +33900,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L38" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M38" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N38" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O38" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P38" t="n">
         <v>539.9786897190645</v>
@@ -33921,7 +33921,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S38" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T38" t="n">
         <v>16.4376645838976</v>
@@ -33970,7 +33970,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I39" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J39" t="n">
         <v>189.8178475575841</v>
@@ -33982,16 +33982,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M39" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N39" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O39" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P39" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q39" t="n">
         <v>256.4624964168761</v>
@@ -34049,7 +34049,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I40" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J40" t="n">
         <v>119.0856174753787</v>
@@ -34076,7 +34076,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R40" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S40" t="n">
         <v>29.35413767523479</v>
@@ -34085,7 +34085,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H41" t="n">
         <v>38.45624955336179</v>
@@ -34137,16 +34137,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N41" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34158,7 +34158,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
@@ -34207,7 +34207,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34219,16 +34219,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O42" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q42" t="n">
         <v>256.4624964168761</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34313,7 +34313,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S43" t="n">
         <v>29.35413767523479</v>
@@ -34322,7 +34322,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J44" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H45" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R45" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U45" t="n">
         <v>0.1321789941675764</v>
@@ -34520,46 +34520,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>412.3780932933494</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>640.584832100039</v>
+        <v>392.1527130811797</v>
       </c>
       <c r="O12" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q12" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>63.93583437922391</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N18" t="n">
         <v>391.1970995928739</v>
@@ -35980,10 +35980,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
         <v>278.0112915831069</v>
@@ -36053,7 +36053,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
         <v>262.6644876295069</v>
@@ -36062,7 +36062,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M21" t="n">
-        <v>566.6829634324471</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
         <v>24.58388860977091</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K25" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N26" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P26" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R26" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M27" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N27" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>122.9351598697847</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K28" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L28" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M28" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N28" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O28" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P28" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N32" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P32" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M33" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
-        <v>566.6829634324471</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K34" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L34" t="n">
         <v>278.0112915831069</v>
@@ -37238,7 +37238,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N34" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O34" t="n">
         <v>262.6644876295069</v>
@@ -37247,7 +37247,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K35" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L35" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O35" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P35" t="n">
         <v>308.745693963795</v>
@@ -37329,7 +37329,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N36" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O36" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K37" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L37" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M37" t="n">
         <v>303.6179906468033</v>
@@ -37478,13 +37478,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O37" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P37" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L38" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M38" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N38" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P38" t="n">
         <v>308.745693963795</v>
@@ -37566,7 +37566,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313201</v>
+        <v>340.6043982600033</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N39" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O39" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K40" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L40" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M40" t="n">
         <v>303.6179906468033</v>
@@ -37715,13 +37715,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O40" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P40" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37803,7 +37803,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215493</v>
+        <v>284.8319806632525</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K43" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
@@ -37952,13 +37952,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P44" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>316.3386309491703</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M45" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K46" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
